--- a/book.xlsx
+++ b/book.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>https://www.showtimes.com.tw/events/1248302</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +36,70 @@
   </si>
   <si>
     <t>https://www.showtimes.com.tw/events/1248302/confirmOrder</t>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電影上下架/編輯(例如:內文)(提醒:注意文章長度撐爆版面)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每個PHP最下方空一行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysqli影響幾列的叫用方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(提醒:上傳預設下架)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>book class:多筆data in a query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smarty叫用獨立一個php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager-member做分頁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class分類再檢查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自製中介層測試</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>route統一(驗證class內的function是否存在method_exists)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager-movie辨認遊客/會員回應改一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bootstrap3 jq不用套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class namespace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -236,6 +301,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>113203</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>199895</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3857625" y="2724150"/>
+          <a:ext cx="8771428" cy="1038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
@@ -501,7 +609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="M1:S54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T65" sqref="T65"/>
     </sheetView>
   </sheetViews>
@@ -532,4 +640,94 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="50.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/book.xlsx
+++ b/book.xlsx
@@ -106,7 +106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -126,6 +126,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2"/>
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -157,11 +165,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -647,7 +658,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -670,7 +681,7 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
@@ -681,12 +692,12 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -701,7 +712,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -711,12 +722,12 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -728,6 +739,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/book.xlsx
+++ b/book.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>https://www.showtimes.com.tw/events/1248302</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>電影上下架/編輯(例如:內文)(提醒:注意文章長度撐爆版面)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mysqli影響幾列的叫用方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(提醒:上傳預設下架)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,6 +91,18 @@
   </si>
   <si>
     <t>class namespace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT `book_info`.`id`,`member`.`account`,`movie`.`name_tw`,`ticket`.`type`,`book_ticket`.`sheet`,`book_info`.`create_at`
+FROM `book_info`,`book_ticket`,`member`,`movie_time`,`movie`,`ticket`
+WHERE `book_info`.`id` = `book_ticket`.`book_id`
+AND `book_info`.`member_id` = `member`.`id`
+AND `book_info`.`event_id` = `movie_time`.`id`
+AND `movie_time`.`movie_id` = `movie`.`id`
+AND `book_ticket`.`ticket_id` = `ticket`.`id`
+AND `book_info`.`member_id` = "47"
+ORDER BY `book_info`.`create_at`,`ticket`.`id`</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -165,7 +169,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -174,6 +178,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -655,10 +662,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -666,74 +673,73 @@
     <col min="1" max="2" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+    <row r="20" spans="2:2" ht="214.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
